--- a/Documentation/Checklist_MiniProject_LTHDT_v6(AutoRecovered).xlsx
+++ b/Documentation/Checklist_MiniProject_LTHDT_v6(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a8888/Documents/viciousircle/OOP Final Project/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81841130-A1CB-6447-B7E6-80EC372EC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1CEB4D-F907-3E42-B6E4-0A6EF4AFD9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Nhóm 01 người" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -163,6 +162,21 @@
   </si>
   <si>
     <t>Sơ đồ phân cấp chức năng (tối thiểu 10 chức năng cấp 3)</t>
+  </si>
+  <si>
+    <t>Doc: 19 - 20</t>
+  </si>
+  <si>
+    <t>Doc: 21 - 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc: 23 </t>
+  </si>
+  <si>
+    <t>Doc: 25-28</t>
+  </si>
+  <si>
+    <t>Doc: 31-32</t>
   </si>
 </sst>
 </file>
@@ -299,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,6 +363,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="188" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -736,7 +756,9 @@
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
@@ -751,7 +773,7 @@
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -767,7 +789,9 @@
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
@@ -782,7 +806,9 @@
       <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
@@ -812,7 +838,9 @@
       <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
@@ -844,7 +872,6 @@
       <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
@@ -1014,7 +1041,9 @@
       <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
@@ -1146,11 +1175,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B12:B25"/>
     <mergeCell ref="B6:B11"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F6:F29">
@@ -1166,7 +1196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D29" xr:uid="{DB5641A6-438A-4478-92CD-C9BDE2EFDE55}">
       <formula1>$D$34:$D$38</formula1>
     </dataValidation>
@@ -1178,6 +1208,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="9320b67b-2563-4c96-955a-dcdf7879dc8a" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e738207b-8185-4915-aabe-7d684b6a3e96" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9320b67b-2563-4c96-955a-dcdf7879dc8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003681C5FA757BBF4386A2528E25B79788" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2524600a8656b7dbdab3d3cdb7cf2d30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9320b67b-2563-4c96-955a-dcdf7879dc8a" xmlns:ns3="e738207b-8185-4915-aabe-7d684b6a3e96" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b590433e20c6d0a2dab5a8875f7f157" ns2:_="" ns3:_="">
     <xsd:import namespace="9320b67b-2563-4c96-955a-dcdf7879dc8a"/>
@@ -1378,42 +1429,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="9320b67b-2563-4c96-955a-dcdf7879dc8a" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e738207b-8185-4915-aabe-7d684b6a3e96" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9320b67b-2563-4c96-955a-dcdf7879dc8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC8CBF1-F414-4E45-8045-4BD36FA9D4AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{216BBB64-95B2-4692-A7FE-7B32F148EF6F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9320b67b-2563-4c96-955a-dcdf7879dc8a"/>
-    <ds:schemaRef ds:uri="e738207b-8185-4915-aabe-7d684b6a3e96"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1431,9 +1450,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{216BBB64-95B2-4692-A7FE-7B32F148EF6F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC8CBF1-F414-4E45-8045-4BD36FA9D4AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9320b67b-2563-4c96-955a-dcdf7879dc8a"/>
+    <ds:schemaRef ds:uri="e738207b-8185-4915-aabe-7d684b6a3e96"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Checklist_MiniProject_LTHDT_v6(AutoRecovered).xlsx
+++ b/Documentation/Checklist_MiniProject_LTHDT_v6(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a8888/Documents/viciousircle/OOP Final Project/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1CEB4D-F907-3E42-B6E4-0A6EF4AFD9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD947AC-BAED-4741-A33E-C856D8377AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="188" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="141" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -825,7 +825,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -857,7 +857,6 @@
       <c r="F12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
@@ -1208,15 +1207,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ReferenceId xmlns="9320b67b-2563-4c96-955a-dcdf7879dc8a" xsi:nil="true"/>
@@ -1226,6 +1216,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1430,14 +1429,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{216BBB64-95B2-4692-A7FE-7B32F148EF6F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24215870-1010-43C1-8228-D611A5F1B757}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1445,6 +1436,14 @@
     <ds:schemaRef ds:uri="7177bf07-2d36-425a-907d-6b2356921bb8"/>
     <ds:schemaRef ds:uri="9320b67b-2563-4c96-955a-dcdf7879dc8a"/>
     <ds:schemaRef ds:uri="e738207b-8185-4915-aabe-7d684b6a3e96"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{216BBB64-95B2-4692-A7FE-7B32F148EF6F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
